--- a/examples.xlsx
+++ b/examples.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Grades" sheetId="3" r:id="rId2"/>
     <sheet name="Fruits" sheetId="2" r:id="rId3"/>
+    <sheet name="Clients" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Students Database</t>
   </si>
@@ -157,6 +158,39 @@
   </si>
   <si>
     <t>Carmen</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Study level</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Monthly earnings</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1109,4 +1143,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>1450</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>1320</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1420</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <v>1640</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>2100</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>1215</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>1430</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>920</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>1120</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>1630</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1870</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>1620</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>1700</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>1380</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>1530</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>1080</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>1790</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>1420</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>1350</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>1510</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
     <sheet name="Grades" sheetId="3" r:id="rId2"/>
     <sheet name="Fruits" sheetId="2" r:id="rId3"/>
     <sheet name="Clients" sheetId="4" r:id="rId4"/>
+    <sheet name="Grades2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Students Database</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Grades</t>
   </si>
 </sst>
 </file>
@@ -320,7 +324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,7 +616,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -930,7 +934,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -1036,7 +1040,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1149,11 +1153,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1519,4 +1523,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples.xlsx
+++ b/examples.xlsx
@@ -1542,7 +1542,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="11235" windowHeight="3885" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Fruits" sheetId="2" r:id="rId3"/>
     <sheet name="Clients" sheetId="4" r:id="rId4"/>
     <sheet name="Grades2" sheetId="5" r:id="rId5"/>
+    <sheet name="Vehicles" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>Students Database</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>Grades</t>
+  </si>
+  <si>
+    <t>ni</t>
   </si>
 </sst>
 </file>
@@ -267,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -277,6 +281,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,7 +623,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -628,15 +635,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -934,16 +941,16 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1040,19 +1047,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1157,7 +1164,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -1529,11 +1536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1608,4 +1615,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>